--- a/results/mp/deberta/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
@@ -115,21 +115,21 @@
     <t>positive</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -139,19 +139,19 @@
     <t>save</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>hope</t>
@@ -1410,13 +1410,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6550218340611353</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L20">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>0.9399999999999999</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1436,25 +1436,25 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6521739130434783</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1462,25 +1462,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6453900709219859</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1491,22 +1491,22 @@
         <v>0.64</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1514,25 +1514,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L24">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="M24">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N24">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1618,25 +1618,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5396341463414634</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="L28">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M28">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1644,25 +1644,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5365853658536586</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L29">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="N29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1670,25 +1670,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5348837209302325</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1696,25 +1696,25 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5287356321839081</v>
+        <v>0.5235602094240838</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="M31">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1722,13 +1722,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5235602094240838</v>
+        <v>0.5205882352941177</v>
       </c>
       <c r="L32">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M32">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="10:17">
